--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-us-wipA\InputData\indst\PPRiFUfERoIF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfERoIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,9 +123,6 @@
     <t>Industries</t>
   </si>
   <si>
-    <t>Perc Fuel Use Reduction</t>
-  </si>
-  <si>
     <t>agriculture</t>
   </si>
   <si>
@@ -511,6 +508,9 @@
   </si>
   <si>
     <t>PPRiFUfERoIF Potential Perc Reduction in Fuel Use from Early Retirement of Inefficient Facilities</t>
+  </si>
+  <si>
+    <t>Perc Fuel Use Reduction (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -658,12 +658,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -973,18 +973,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="2" max="2" width="81.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -992,92 +992,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1094,42 +1094,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="106" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="2" max="5" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
       </c>
       <c r="E5">
         <v>2029</v>
@@ -1138,20 +1138,20 @@
         <v>2030</v>
       </c>
       <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1162,13 +1162,13 @@
       <c r="F7">
         <v>20991.3</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1179,21 +1179,21 @@
       <c r="F8">
         <v>21138.5</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1204,13 +1204,13 @@
       <c r="F10">
         <v>158.6</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1221,31 +1221,31 @@
       <c r="F11">
         <v>158.6</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1256,13 +1256,13 @@
       <c r="F15">
         <v>359</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>54</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1273,21 +1273,21 @@
       <c r="F16">
         <v>361.7</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1298,13 +1298,13 @@
       <c r="F18">
         <v>529.4</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1315,21 +1315,21 @@
       <c r="F19">
         <v>532.5</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>59</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1340,13 +1340,13 @@
       <c r="F21">
         <v>1492</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1357,26 +1357,26 @@
       <c r="F22">
         <v>1494.8</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1387,13 +1387,13 @@
       <c r="F25">
         <v>822</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1404,21 +1404,21 @@
       <c r="F26">
         <v>827.6</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>66</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1429,13 +1429,13 @@
       <c r="F28">
         <v>95.3</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1446,21 +1446,21 @@
       <c r="F29">
         <v>97.1</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="17">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>68</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>69</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1471,13 +1471,13 @@
       <c r="F31">
         <v>36.1</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="17">
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -1488,21 +1488,21 @@
       <c r="F32">
         <v>41.6</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="17">
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>71</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>72</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -1513,13 +1513,13 @@
       <c r="F34">
         <v>102.6</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="17">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -1530,21 +1530,21 @@
       <c r="F35">
         <v>107.1</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="17">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>75</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -1555,13 +1555,13 @@
       <c r="F37">
         <v>73.3</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="17">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -1572,21 +1572,21 @@
       <c r="F38">
         <v>76.099999999999994</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>77</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>78</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -1597,13 +1597,13 @@
       <c r="F40">
         <v>186.5</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="17">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -1614,21 +1614,21 @@
       <c r="F41">
         <v>192.4</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="17">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>81</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -1639,13 +1639,13 @@
       <c r="F43">
         <v>66.599999999999994</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -1656,21 +1656,21 @@
       <c r="F44">
         <v>66.900000000000006</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>83</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>84</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -1681,13 +1681,13 @@
       <c r="F46">
         <v>1031.5999999999999</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -1698,21 +1698,21 @@
       <c r="F47">
         <v>1046.8</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -1720,16 +1720,16 @@
       <c r="E49">
         <v>450.4</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="18">
         <v>450.2</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>88</v>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -1737,24 +1737,24 @@
       <c r="E50">
         <v>460.2</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
         <v>459.3</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="17">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>89</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>90</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -1765,13 +1765,13 @@
       <c r="F52">
         <v>31.3</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="17">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -1782,21 +1782,21 @@
       <c r="F53">
         <v>32.6</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="17">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>92</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>93</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -1807,13 +1807,13 @@
       <c r="F55">
         <v>217.9</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -1824,21 +1824,21 @@
       <c r="F56">
         <v>226.5</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="17">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>95</v>
-      </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>96</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -1849,13 +1849,13 @@
       <c r="F58">
         <v>176.6</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -1866,21 +1866,21 @@
       <c r="F59">
         <v>174.9</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="17">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>98</v>
-      </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>99</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -1891,13 +1891,13 @@
       <c r="F61">
         <v>24.4</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -1908,21 +1908,21 @@
       <c r="F62">
         <v>25.3</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>101</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>102</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -1933,13 +1933,13 @@
       <c r="F64">
         <v>581.4</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -1950,21 +1950,21 @@
       <c r="F65">
         <v>587.5</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -1972,16 +1972,16 @@
       <c r="E67">
         <v>438.9</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="18">
         <v>437</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="17">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>106</v>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -1989,24 +1989,24 @@
       <c r="E68">
         <v>458.6</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="18">
         <v>457.4</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>107</v>
-      </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>108</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -2017,13 +2017,13 @@
       <c r="F70">
         <v>414.3</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="17">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -2034,21 +2034,21 @@
       <c r="F71">
         <v>434.5</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>110</v>
-      </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>111</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -2059,13 +2059,13 @@
       <c r="F73">
         <v>22.7</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -2076,21 +2076,21 @@
       <c r="F74">
         <v>22.8</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>113</v>
-      </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>114</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -2101,13 +2101,13 @@
       <c r="F76">
         <v>241.9</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="17">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -2118,21 +2118,21 @@
       <c r="F77">
         <v>263.8</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="17">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>116</v>
-      </c>
-      <c r="C78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>117</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -2143,13 +2143,13 @@
       <c r="F79">
         <v>116.1</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="17">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
@@ -2160,21 +2160,21 @@
       <c r="F80">
         <v>131.9</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="17">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>119</v>
-      </c>
-      <c r="C81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>120</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -2185,13 +2185,13 @@
       <c r="F82">
         <v>27.3</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="17">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -2202,21 +2202,21 @@
       <c r="F83">
         <v>29.3</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="17">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="C84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -2224,16 +2224,16 @@
       <c r="E85">
         <v>10.199999999999999</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="18">
         <v>10.4</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G85" s="17">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>124</v>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -2241,24 +2241,24 @@
       <c r="E86">
         <v>10.9</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="18">
         <v>11.1</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>125</v>
-      </c>
-      <c r="C87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>126</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -2269,13 +2269,13 @@
       <c r="F88">
         <v>78.400000000000006</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="17">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -2286,21 +2286,21 @@
       <c r="F89">
         <v>91.6</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="17">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>128</v>
-      </c>
-      <c r="C90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>129</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -2311,13 +2311,13 @@
       <c r="F91">
         <v>266.8</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="17">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -2328,21 +2328,21 @@
       <c r="F92">
         <v>297.8</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="17">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="C93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -2350,16 +2350,16 @@
       <c r="E94">
         <v>150.1</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="18">
         <v>150.19999999999999</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>133</v>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -2367,24 +2367,24 @@
       <c r="E95">
         <v>165.8</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="18">
         <v>164.7</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="17">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
         <v>134</v>
-      </c>
-      <c r="C96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>135</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -2395,13 +2395,13 @@
       <c r="F97">
         <v>42.5</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -2412,21 +2412,21 @@
       <c r="F98">
         <v>51.9</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="17">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
         <v>137</v>
-      </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>138</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -2437,13 +2437,13 @@
       <c r="F100">
         <v>74</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G100" s="17">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -2454,21 +2454,21 @@
       <c r="F101">
         <v>81.3</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="17">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
         <v>140</v>
-      </c>
-      <c r="C102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>141</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -2479,13 +2479,13 @@
       <c r="F103">
         <v>412.7</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C104" t="b">
         <v>1</v>
@@ -2496,21 +2496,21 @@
       <c r="F104">
         <v>417.9</v>
       </c>
-      <c r="G104" s="18">
+      <c r="G104" s="17">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
         <v>143</v>
-      </c>
-      <c r="C105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>144</v>
       </c>
       <c r="C106" t="b">
         <v>1</v>
@@ -2521,13 +2521,13 @@
       <c r="F106">
         <v>559.29999999999995</v>
       </c>
-      <c r="G106" s="18">
+      <c r="G106" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
@@ -2538,21 +2538,21 @@
       <c r="F107">
         <v>575.1</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
         <v>146</v>
-      </c>
-      <c r="C108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>147</v>
       </c>
       <c r="C109" t="b">
         <v>1</v>
@@ -2563,13 +2563,13 @@
       <c r="F109">
         <v>799</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C110" t="b">
         <v>1</v>
@@ -2580,21 +2580,21 @@
       <c r="F110">
         <v>803.9</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G110" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
         <v>149</v>
-      </c>
-      <c r="C111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>150</v>
       </c>
       <c r="C112" t="b">
         <v>1</v>
@@ -2605,13 +2605,13 @@
       <c r="F112">
         <v>1238.3</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="17">
         <v>0.03</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
@@ -2622,21 +2622,21 @@
       <c r="F113">
         <v>1249</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G113" s="17">
         <v>0.03</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
         <v>152</v>
-      </c>
-      <c r="C114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>153</v>
       </c>
       <c r="C115" t="b">
         <v>1</v>
@@ -2647,13 +2647,13 @@
       <c r="F115">
         <v>175.1</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="17">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C116" t="b">
         <v>1</v>
@@ -2664,21 +2664,21 @@
       <c r="F116">
         <v>176.7</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G116" s="17">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
         <v>155</v>
-      </c>
-      <c r="C117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>156</v>
       </c>
       <c r="C118" t="b">
         <v>1</v>
@@ -2689,13 +2689,13 @@
       <c r="F118">
         <v>315.39999999999998</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="17">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C119" t="b">
         <v>1</v>
@@ -2706,21 +2706,21 @@
       <c r="F119">
         <v>318.89999999999998</v>
       </c>
-      <c r="G119" s="18">
+      <c r="G119" s="17">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
         <v>158</v>
-      </c>
-      <c r="C120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>159</v>
       </c>
       <c r="C121" t="b">
         <v>1</v>
@@ -2731,13 +2731,13 @@
       <c r="F121">
         <v>9356</v>
       </c>
-      <c r="G121" s="18">
+      <c r="G121" s="17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
@@ -2748,7 +2748,7 @@
       <c r="F122">
         <v>9536.9</v>
       </c>
-      <c r="G122" s="18">
+      <c r="G122" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
@@ -2765,14 +2765,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.265625" customWidth="1"/>
+    <col min="2" max="2" width="36.86328125" customWidth="1"/>
+    <col min="3" max="3" width="68.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2845,18 +2845,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2866,18 +2866,18 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -2894,23 +2894,25 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2919,7 +2921,7 @@
         <v>6.3063063063063002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>4.4599912549191031E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>8.8038858530661818E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2946,7 +2948,7 @@
         <v>1.9812758545612937E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2964,16 +2966,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="16">
         <f>Results!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
